--- a/outputs/CAROLINA2.xlsx
+++ b/outputs/CAROLINA2.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations
-Why: Abi is physically at ICSE 2019 and planning which sessions to attend tomorrow is directly aligned with her goal of making the most out of the conference. This subgoal is essential to achieve her overall use case of attending and benefiting from the conference sessions.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to plan her schedule for the next day to make the most of her time at the conference. This subgoal aligns with her need to gather comprehensive information to form a complete understanding of the sessions available, which fits her information processing style.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: The "Program" menu item is clearly labeled and prominently placed on the navigation bar. Given Abi's motivation to plan her sessions and her comprehensive information processing style, she will likely recognize that clicking on "Program" will lead her to the session schedules, which is relevant to her current subgoal.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Program" menu item is clearly labeled and directly related to Abi's goal of finding out which sessions to attend. Given her motivation to plan her schedule and her comprehensive information processing style, she will recognize that clicking on the "Program" menu item is a logical step to find the session information she needs.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Information Processing Style, Computer Self-Efficacy
-Why: After clicking the "Program" menu item, Abi is presented with a dropdown list with multiple options, such as "Complete Program," "Your Program," "Week Overview," and several others. While this provides a lot of information, it might be overwhelming for Abi, who prefers a comprehensive rather than fragmented approach to gathering information. Additionally, given Abi's low computer self-efficacy, she might not be confident in choosing the correct option without further guidance. Therefore, she may not feel certain that she is making progress toward her goal and may not get all the information she needs easily.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on the "Program" menu item, Abi is presented with a dropdown menu containing multiple options. While this indicates progress, it may not be immediately clear which specific option will provide the detailed session information she needs. Given her comprehensive information processing style, she might feel uncertain about which link to click next. Additionally, her low computer self-efficacy might make her hesitant to explore multiple options without clear guidance, potentially causing confusion and hindering her progress.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: The option "Complete Program" is clearly labeled in the dropdown menu under "Program." Given Abi's motivation to find out what sessions to attend and her comprehensive information processing style, she will likely recognize that "Complete Program" will provide a full list of sessions, which is relevant to her current subgoal. The labeling is intuitive and directly aligned with her goal, making it clear what to do at this step.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Complete Program" option in the dropdown menu is clearly labeled and directly related to Abi's goal of finding out which sessions to attend. Given her motivation to plan her schedule and her comprehensive information processing style, she will recognize that clicking on "Complete Program" is a logical step to access the detailed session information she needs.</t>
         </is>
       </c>
     </row>
@@ -461,17 +461,17 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: After clicking "Complete Program," Abi lands on a page that displays a detailed timeline of the sessions. This page provides comprehensive information about the sessions, including times, tracks, and locations. Given Abi's preference for a comprehensive information processing style, she will recognize that she has made progress toward her goal of planning which sessions to attend. The organized and detailed presentation of the program will help her feel confident that she has the information she needs.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Complete Program," Abi is taken to a page that provides a detailed timeline of sessions for the conference. This page includes comprehensive information about the sessions, including times, titles, and speakers, which aligns with her need for detailed information to plan her schedule. The clear presentation of the schedule will help Abi feel confident that she is making progress toward her goal of deciding which sessions to attend.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: Computer Self-Efficacy, Attitude Towards Risk
-Why: The page Abi is currently on already provides a detailed timeline of sessions. Given Abi's low computer self-efficacy and risk-averse nature, she might be hesitant to click on "Session Timeline" without clear guidance or indication that it will provide her with additional necessary information. The current page seems comprehensive, and she might not be confident that clicking "Session Timeline" is the next correct step, as she may already feel she has the needed information.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Session Timeline" tab is clearly labeled and directly related to Abi's goal of finding out which sessions to attend. Given her motivation to plan her schedule and her comprehensive information processing style, she will recognize that clicking on "Session Timeline" is a logical step to access a detailed view of the sessions, helping her to organize her day effectively.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Information Processing Style, Computer Self-Efficacy, Attitude Towards Risk
-Why: The session timeline page presents a very dense and visually complex schedule, which might be overwhelming for Abi. Given her comprehensive information processing style, she may find it difficult to parse through the extensive visual data to find relevant sessions. Additionally, due to her low computer self-efficacy, she might feel unsure about whether she is making progress toward her goal or if she is navigating the information correctly. This could hinder her confidence in getting all the information she needs.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on "Session Timeline," Abi is presented with a very detailed and extensive timeline. While this page contains a lot of information, the sheer volume and density of the data might be overwhelming for her. Given her comprehensive information processing style, she might find it difficult to quickly extract the specific information she needs for planning her sessions. Additionally, her low computer self-efficacy might make her feel uncertain about navigating such a complex page, potentially causing her to feel lost or unsure if she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Computer Self-Efficacy, Attitude Towards Risk, Information Processing Style
-Why: The session timeline is visually dense and may be overwhelming for Abi. While the tutorial "R for Software Engineering Research" is part of the timeline, Abi may not immediately recognize that she should click on it to get more information. Given her low computer self-efficacy and risk-averse nature, she might be hesitant to click on an item without clear guidance or indication that it will provide the necessary information. Additionally, her comprehensive information processing style means she prefers clear and structured information, which is not immediately apparent in the busy visual layout of the timeline.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The timeline is very detailed and dense, which might make it difficult for Abi to quickly locate the specific tutorial she is interested in. Given her comprehensive information processing style, she might find it challenging to sift through the extensive information to find the exact session. Additionally, her low computer self-efficacy might make her hesitant to click on a session without being certain it will provide the information she needs, potentially causing confusion and hindering her progress.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: After clicking on the tutorial "R for Software Engineering Research," Abi lands on a detailed page that provides comprehensive information about the tutorial, including the course description, prerequisites, and schedule. This aligns well with her comprehensive information processing style, as the page offers structured and detailed information. Given her motivation to plan her sessions and the clarity of the information presented, Abi will know that she did the right thing and is making progress toward her goal. She will also get all the necessary information she needs about the tutorial.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on the tutorial "R for Software Engineering Research," Abi is taken to a page that provides detailed information about the tutorial, including the course description, prerequisites, and instructor details. This aligns with her motivation to plan her schedule and her comprehensive information processing style, as she will have access to all the necessary information to decide if this session is relevant to her interests and needs. The clear presentation of the tutorial details will help Abi feel confident that she is making progress toward her goal.</t>
         </is>
       </c>
     </row>

--- a/outputs/CAROLINA2.xlsx
+++ b/outputs/CAROLINA2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to plan her schedule for the next day to make the most of her time at the conference. This subgoal aligns with her need to gather comprehensive information to form a complete understanding of the sessions available, which fits her information processing style.</t>
+Why: Abi is motivated to plan her sessions for the next day, which aligns with her goal of attending relevant sessions at the conference. The page provides a list of tracks and co-hosted conferences, which are essential pieces of information for her to decide which sessions to attend. This aligns with her comprehensive information processing style, as she would need to gather all relevant information to make an informed decision.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Program" menu item is clearly labeled and directly relevant to Abi's subgoal of finding out which sessions to attend. Given her motivation to plan her schedule and her comprehensive information processing style, she will recognize that clicking on the "Program" menu item is a logical step to find the necessary information.</t>
+Why: Abi is motivated to find out which sessions to attend, and the "Program" menu item is clearly labeled, indicating it will likely contain the schedule or details of the sessions. This aligns with her comprehensive information processing style, as she would recognize that clicking on "Program" is a logical step to gather the necessary information about the sessions.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on the "Program" menu item, Abi is presented with a dropdown menu containing multiple options. While this indicates progress, it may not be immediately clear which specific option will provide the detailed session information she needs for planning her day. Given her comprehensive information processing style, she might feel uncertain about which link to click next. Additionally, her low computer self-efficacy might make her hesitant to explore multiple options without clear guidance.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
+Why: After clicking on the "Program" menu item, Abi is presented with a dropdown menu containing multiple options such as "Complete Program," "Week Overview," "Industry Program," etc. This might overwhelm her due to the abundance of choices without clear guidance on which option will provide the specific information she needs for planning her sessions for the next day. Abi's comprehensive information processing style requires clear and direct information, and her low computer self-efficacy means she might struggle with deciding which option to choose. Additionally, her preference for process-oriented learning means she would benefit from more explicit instructions or a step-by-step guide, which is not provided here.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Complete Program" option in the dropdown menu is clearly labeled and directly relevant to Abi's subgoal of finding out which sessions to attend. Given her motivation to plan her schedule and her comprehensive information processing style, she will recognize that clicking on "Complete Program" is a logical step to find the detailed session information she needs.</t>
+Why: Abi is motivated to find out which sessions to attend, and the "Complete Program" option in the dropdown menu is clearly labeled, indicating it will likely contain the full schedule of sessions. This aligns with her comprehensive information processing style, as she would recognize that clicking on "Complete Program" is a logical step to gather all the necessary information about the sessions. The label is straightforward and suggests that it will provide a thorough overview, which is what Abi needs to plan her day.</t>
         </is>
       </c>
     </row>
@@ -462,43 +462,43 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Complete Program," Abi is taken to a detailed schedule of the conference sessions. This page provides a comprehensive list of sessions, including times and locations, which aligns with her need for detailed information to plan her day. The clear layout and detailed information will help Abi feel confident that she is making progress toward her goal of deciding which sessions to attend.</t>
+Why: After clicking on "Complete Program," Abi is presented with a detailed schedule of sessions, including times, titles, and locations. This comprehensive view aligns with her motivation to plan her sessions and her information processing style, which prefers detailed and complete information. The page provides all the necessary details for her to decide which sessions to attend, confirming that she did the right thing and is making progress toward her goal.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The "Session Timeline" tab is not explicitly explained on the page, and Abi might not be confident in understanding what additional or different information it might provide compared to the "Detailed Table" view she is already seeing. Given her low computer self-efficacy, she might hesitate to click on it without clear guidance. Additionally, her preference for process-oriented learning means she would benefit from more explicit instructions or a step-by-step guide, which is not provided here. Therefore, she might not know what to do at this step.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on "Session Timeline," Abi is presented with a very dense and visually complex schedule. While it does provide a comprehensive overview of the sessions, the sheer amount of information and the visual layout might overwhelm her. Given her comprehensive information processing style, she might find it difficult to extract the specific information she needs for planning her sessions for the next day. Additionally, her low computer self-efficacy means she might struggle with navigating and interpreting this complex timeline, making it hard for her to feel confident that she is making progress toward her goal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The timeline is visually complex and dense, which might make it difficult for Abi to confidently identify and click on the specific tutorial session she is interested in. Given her low computer self-efficacy, she might struggle with navigating this complex interface and may not be sure if clicking on the session will provide the detailed information she needs. Additionally, her preference for process-oriented learning means she would benefit from more explicit instructions or a step-by-step guide, which is not provided here. Therefore, she might not know what to do at this step.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Session Timeline" tab is clearly labeled and is a logical next step for Abi to get a different view of the sessions. Given her motivation to plan her schedule and her comprehensive information processing style, she will recognize that clicking on "Session Timeline" could provide a useful alternative view of the sessions, helping her to make an informed decision about which sessions to attend.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Session Timeline" page presents a very dense and visually overwhelming schedule. While it does provide a comprehensive view of the sessions, the sheer amount of information and the layout may make it difficult for Abi to quickly find the specific sessions she is interested in. Given her comprehensive information processing style, she might feel overwhelmed by the volume of information and uncertain about how to proceed. Additionally, her low computer self-efficacy might make her hesitant to navigate such a complex page without clear guidance.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Session Timeline" page is very dense and visually overwhelming, making it difficult for Abi to quickly locate the specific tutorial she is interested in. Given her comprehensive information processing style, she might feel uncertain about where to click next due to the large amount of information presented. Additionally, her low computer self-efficacy might make her hesitant to navigate such a complex page without clear guidance, leading to uncertainty about whether clicking on the tutorial is the right action to take.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the tutorial "R for Software Engineering Research," Abi is taken to a page that provides detailed information about the tutorial, including the course description, prerequisites, and instructor details. This aligns with her motivation to plan her schedule and her comprehensive information processing style, as she will have all the necessary information to decide whether to attend this session. The clear and detailed layout of the page will help Abi feel confident that she is making progress toward her goal.</t>
+Why: After clicking on the tutorial "R for Software Engineering Research," Abi is presented with a detailed page that includes the course description, prerequisites, and other relevant information. This aligns with her motivation to gather all necessary details to plan her sessions and her comprehensive information processing style. The page provides all the information she needs to decide whether to attend this tutorial, confirming that she did the right thing and is making progress toward her goal.</t>
         </is>
       </c>
     </row>

--- a/outputs/CAROLINA2.xlsx
+++ b/outputs/CAROLINA2.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to plan her sessions for the next day, which aligns with her goal of attending relevant sessions at the conference. The page provides a list of tracks and co-hosted conferences, which are essential pieces of information for her to decide which sessions to attend. This aligns with her comprehensive information processing style, as she would need to gather all relevant information to make an informed decision.</t>
+Facets: 1. Motivations
+Why: Abi is motivated to plan her schedule for the next day at the conference. Determining which sessions to attend is a logical step toward achieving her overall goal of making the most of her time at ICSE 2019.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to find out which sessions to attend, and the "Program" menu item is clearly labeled, indicating it will likely contain the schedule or details of the sessions. This aligns with her comprehensive information processing style, as she would recognize that clicking on "Program" is a logical step to gather the necessary information about the sessions.</t>
+Why: The "Program" menu item is clearly labeled and directly related to Abi's goal of finding sessions to attend. Her motivation to plan her schedule and her comprehensive information processing style will guide her to click on it to find relevant session information.</t>
         </is>
       </c>
     </row>
@@ -443,53 +443,53 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: After clicking on the "Program" menu item, Abi is presented with a dropdown menu containing multiple options such as "Complete Program," "Week Overview," "Industry Program," etc. This might overwhelm her due to the abundance of choices without clear guidance on which option will provide the specific information she needs for planning her sessions for the next day. Abi's comprehensive information processing style requires clear and direct information, and her low computer self-efficacy means she might struggle with deciding which option to choose. Additionally, her preference for process-oriented learning means she would benefit from more explicit instructions or a step-by-step guide, which is not provided here.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page contains a lot of information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult for her to quickly find the specific sessions she is interested in. Additionally, her low computer self-efficacy could make her doubt whether she is on the right track, as the page does not clearly indicate progress toward her goal.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page is cluttered with information, and without clear guidance or labeling, Abi might struggle to identify the "complete program" link. Her low computer self-efficacy and preference for process-oriented learning mean she may not feel confident in knowing what to do next without explicit instructions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to find out which sessions to attend, and the "Complete Program" option in the dropdown menu is clearly labeled, indicating it will likely contain the full schedule of sessions. This aligns with her comprehensive information processing style, as she would recognize that clicking on "Complete Program" is a logical step to gather all the necessary information about the sessions. The label is straightforward and suggests that it will provide a thorough overview, which is what Abi needs to plan her day.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+Why: The page provides a clear and detailed schedule of sessions, which aligns with Abi's goal of planning her day. The structured format helps her process the information comprehensively, confirming she is on the right track and making progress toward her goal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Complete Program," Abi is presented with a detailed schedule of sessions, including times, titles, and locations. This comprehensive view aligns with her motivation to plan her sessions and her information processing style, which prefers detailed and complete information. The page provides all the necessary details for her to decide which sessions to attend, confirming that she did the right thing and is making progress toward her goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+Why: The "Session Timeline" tab is clearly labeled and relevant to Abi's goal of planning her schedule. Her motivation to organize her day and her comprehensive information processing style will guide her to explore this option for a visual representation of the sessions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The session timeline provides a clear visual representation of the schedule, helping Abi see the sessions at a glance. This aligns with her motivation to plan her day and supports her comprehensive information processing style, confirming she is making progress toward her goal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The "Session Timeline" tab is not explicitly explained on the page, and Abi might not be confident in understanding what additional or different information it might provide compared to the "Detailed Table" view she is already seeing. Given her low computer self-efficacy, she might hesitate to click on it without clear guidance. Additionally, her preference for process-oriented learning means she would benefit from more explicit instructions or a step-by-step guide, which is not provided here. Therefore, she might not know what to do at this step.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on "Session Timeline," Abi is presented with a very dense and visually complex schedule. While it does provide a comprehensive overview of the sessions, the sheer amount of information and the visual layout might overwhelm her. Given her comprehensive information processing style, she might find it difficult to extract the specific information she needs for planning her sessions for the next day. Additionally, her low computer self-efficacy means she might struggle with navigating and interpreting this complex timeline, making it hard for her to feel confident that she is making progress toward her goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The timeline is visually complex and dense, which might make it difficult for Abi to confidently identify and click on the specific tutorial session she is interested in. Given her low computer self-efficacy, she might struggle with navigating this complex interface and may not be sure if clicking on the session will provide the detailed information she needs. Additionally, her preference for process-oriented learning means she would benefit from more explicit instructions or a step-by-step guide, which is not provided here. Therefore, she might not know what to do at this step.</t>
+Why: The timeline is dense with information, and without clear instructions or labels indicating that clicking will provide more details, Abi might hesitate. Her low computer self-efficacy and preference for explicit guidance mean she may not feel confident in knowing what to do next.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the tutorial "R for Software Engineering Research," Abi is presented with a detailed page that includes the course description, prerequisites, and other relevant information. This aligns with her motivation to gather all necessary details to plan her sessions and her comprehensive information processing style. The page provides all the information she needs to decide whether to attend this tutorial, confirming that she did the right thing and is making progress toward her goal.</t>
+Why: The page provides detailed information about the tutorial, including the course description and prerequisites. This aligns with Abi's motivation to plan her sessions and supports her comprehensive information processing style, confirming she is making progress toward her goal.</t>
         </is>
       </c>
     </row>

--- a/outputs/CAROLINA2.xlsx
+++ b/outputs/CAROLINA2.xlsx
@@ -424,81 +424,81 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations
-Why: Abi is motivated to plan her schedule for the next day at the conference. Determining which sessions to attend is a logical step toward achieving her overall goal of making the most of her time at ICSE 2019.</t>
+          <t>Answer: Yes 
+Facets: 1. Motivations, 2. Information Processing Style
+Why: It seems likely that ABI has considered this a step toward achieving the overall use case because ABI's motivation is to accomplish her tasks. It is part of her planning for the next day. Also her information processing style is "bursty"; first, ABI reads a lot and then acts on it in a batch of activities. So it is clear that she has thought of this as a step toward achieving the overall use case</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Program" menu item is clearly labeled and directly related to Abi's goal of finding sessions to attend. Her motivation to plan her schedule and her comprehensive information processing style will guide her to click on it to find relevant session information.</t>
+          <t>Answer: NO
+Facets: 3. Attitude towards Risk, 4.Computer Self-Efficacy
+Why: ABI will be unaware of what this button will do as there is no information near the button. To be on the safe side and not risk uncertainty, ABI will likely not click on this button as she is risk-averse to using unfamiliar technologies that might need extra time to figure out. Her Computer Self-Efficacy is not good. So she will unlikely click the button to explore</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page contains a lot of information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult for her to quickly find the specific sessions she is interested in. Additionally, her low computer self-efficacy could make her doubt whether she is on the right track, as the page does not clearly indicate progress toward her goal.</t>
+          <t>Answer: Yes
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Since ABI clicked the "program" link, she should understand that she is now on the program page. Also, now she can see the schedule of the conference and can start making decision based on it. This will help her to achieve her goal. So it is a yes as her motivation is to accomplish her tasks.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is cluttered with information, and without clear guidance or labeling, Abi might struggle to identify the "complete program" link. Her low computer self-efficacy and preference for process-oriented learning mean she may not feel confident in knowing what to do next without explicit instructions.</t>
+          <t>Answer: Yes
+Facets: 2. Information Processing Style
+Why: ABI will know to click on the "complete program" button because it is written clearly. And this is aligned with her information processing style. So she will feel comfortable to click the button</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Answer: YES
+          <t>Answer: Yes
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides a clear and detailed schedule of sessions, which aligns with Abi's goal of planning her day. The structured format helps her process the information comprehensively, confirming she is on the right track and making progress toward her goal.</t>
+Why: Since ABI clicked the "complete program" link, she should understand that she is now on the complete schedule page. Also, now she can see the schedule of the conference and can start making decision based on it. This will help her to achieve her goal. So it is a yes as her motivation is to accomplish her tasks.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Session Timeline" tab is clearly labeled and relevant to Abi's goal of planning her schedule. Her motivation to organize her day and her comprehensive information processing style will guide her to explore this option for a visual representation of the sessions.</t>
+          <t>Answer: Yes
+Facets: 2. Information Processing Style
+Why: There is a section for "session timeline" which will help her to see the schedule for the conference. So it is clear that she will click on the button to know which event is happening when</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Answer: YES
+          <t>Answer: Yes
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The session timeline provides a clear visual representation of the schedule, helping Abi see the sessions at a glance. This aligns with her motivation to plan her day and supports her comprehensive information processing style, confirming she is making progress toward her goal.</t>
+Why: Since ABI clicked the "session timeline" link, she should understand that she is now on the session timeline page. Also, now she can see the schedule of the conference and can start making decision based on it. This will help her to achieve her goal. So it is a yes as her motivation is to accomplish her tasks.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The timeline is dense with information, and without clear instructions or labels indicating that clicking will provide more details, Abi might hesitate. Her low computer self-efficacy and preference for explicit guidance mean she may not feel confident in knowing what to do next.</t>
+          <t>Answer: Yes
+Facets: 2. Information Processing Style
+Why: It is clearly written on the page that R for Software Engineering Research is  at 9:00am-12:30pm. So Abi can see the details about event. She will do it to plan her schedule.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Answer: YES
+          <t>Answer: Yes
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides detailed information about the tutorial, including the course description and prerequisites. This aligns with Abi's motivation to plan her sessions and supports her comprehensive information processing style, confirming she is making progress toward her goal.</t>
+Why: Since ABI clicked the "R for software Engineering Research" link, she should understand that she is now on the tutorial page. Also, now she can see the details about the event. This will help her to achieve her goal. So it is a yes as her motivation is to accomplish her tasks.</t>
         </is>
       </c>
     </row>

--- a/outputs/CAROLINA2.xlsx
+++ b/outputs/CAROLINA2.xlsx
@@ -424,81 +424,81 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Answer: Yes 
-Facets: 1. Motivations, 2. Information Processing Style
-Why: It seems likely that ABI has considered this a step toward achieving the overall use case because ABI's motivation is to accomplish her tasks. It is part of her planning for the next day. Also her information processing style is "bursty"; first, ABI reads a lot and then acts on it in a batch of activities. So it is clear that she has thought of this as a step toward achieving the overall use case</t>
+          <t>Answer: YES
+Facets: 1. Motivations
+Why: Abi is motivated to plan her schedule for the next day at the conference. Determining which sessions to attend is a logical step toward achieving her overall goal of making the most of her time at ICSE 2019.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 3. Attitude towards Risk, 4.Computer Self-Efficacy
-Why: ABI will be unaware of what this button will do as there is no information near the button. To be on the safe side and not risk uncertainty, ABI will likely not click on this button as she is risk-averse to using unfamiliar technologies that might need extra time to figure out. Her Computer Self-Efficacy is not good. So she will unlikely click the button to explore</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Program" menu item is clearly labeled and directly related to Abi's goal of finding sessions to attend. Her motivation to plan her schedule and her comprehensive information processing style will guide her to click on the "Program" menu to find relevant session information.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Answer: Yes
+          <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Since ABI clicked the "program" link, she should understand that she is now on the program page. Also, now she can see the schedule of the conference and can start making decision based on it. This will help her to achieve her goal. So it is a yes as her motivation is to accomplish her tasks.</t>
+Why: After clicking the "Program" menu, Abi sees a dropdown with options like "Complete Program," "Your Program," and specific dates. This provides clear pathways to find detailed session information, confirming she is making progress toward her goal of planning which sessions to attend.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Answer: Yes
-Facets: 2. Information Processing Style
-Why: ABI will know to click on the "complete program" button because it is written clearly. And this is aligned with her information processing style. So she will feel comfortable to click the button</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Complete Program" option is clearly labeled and directly related to Abi's goal of finding session information. Her motivation to plan her schedule and her comprehensive information processing style will guide her to click on "Complete Program" to access detailed session details.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Answer: Yes
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Since ABI clicked the "complete program" link, she should understand that she is now on the complete schedule page. Also, now she can see the schedule of the conference and can start making decision based on it. This will help her to achieve her goal. So it is a yes as her motivation is to accomplish her tasks.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page contains a large amount of information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult to quickly find the specific sessions for the next day. Additionally, her low computer self-efficacy could lead to uncertainty about whether she is on the right track.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Answer: Yes
-Facets: 2. Information Processing Style
-Why: There is a section for "session timeline" which will help her to see the schedule for the conference. So it is clear that she will click on the button to know which event is happening when</t>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page is dense with information, and there is no clear indication or label for a "session timeline" to click on. Abi's low computer self-efficacy and preference for process-oriented learning mean she might struggle to identify the correct action without explicit guidance.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Answer: Yes
+          <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Since ABI clicked the "session timeline" link, she should understand that she is now on the session timeline page. Also, now she can see the schedule of the conference and can start making decision based on it. This will help her to achieve her goal. So it is a yes as her motivation is to accomplish her tasks.</t>
+Why: The session timeline provides a clear visual representation of the schedule, making it easier for Abi to see the sessions available on each day. This aligns with her motivation to plan her schedule and her comprehensive information processing style, confirming she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Answer: Yes
-Facets: 2. Information Processing Style
-Why: It is clearly written on the page that R for Software Engineering Research is  at 9:00am-12:30pm. So Abi can see the details about event. She will do it to plan her schedule.</t>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The timeline is visually dense, and without explicit instructions or clear labeling, Abi might not be confident in identifying the correct tutorial to click on. Her low computer self-efficacy and preference for guided learning could make this step challenging without additional guidance.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Answer: Yes
+          <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Since ABI clicked the "R for software Engineering Research" link, she should understand that she is now on the tutorial page. Also, now she can see the details about the event. This will help her to achieve her goal. So it is a yes as her motivation is to accomplish her tasks.</t>
+Why: The page provides detailed information about the "R for Software Engineering Research" tutorial, including the course description and prerequisites. This aligns with Abi's motivation to plan her schedule and her comprehensive information processing style, confirming she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
